--- a/NZ Food Emissions Database.xlsx
+++ b/NZ Food Emissions Database.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkid550\Google Drive\MPH - Bruce, Sally &amp; Boyd\LCA database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\dietcost-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B1258-FED3-465D-8521-3D567A0FE42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Table S2" sheetId="1" r:id="rId1"/>
     <sheet name="database_common_foods" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="500">
   <si>
     <t>Excel Table S2: NZ-Specific Food Emissions Database</t>
   </si>
@@ -349,10 +353,6 @@
     <t>Leafy greens includes lettuce, spinach, silver beet, bok choy etc</t>
   </si>
   <si>
-    <t xml:space="preserve">03038
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">02021 02029
 </t>
   </si>
@@ -1601,12 +1601,20 @@
   </si>
   <si>
     <t>05083 05082 05088 05104 05105 05106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03038 03074 03075
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03038 03075
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1792,7 +1800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1872,6 +1880,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1879,9 +1893,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2097,12 +2108,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2159,22 +2170,22 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -2231,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
@@ -3427,7 +3438,7 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>79</v>
       </c>
@@ -3482,15 +3493,15 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>90</v>
+      <c r="C27" s="32" t="s">
+        <v>498</v>
       </c>
       <c r="D27" s="16">
         <v>0.84</v>
@@ -3542,10 +3553,10 @@
         <v>79</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="D28" s="16">
         <v>0.84</v>
@@ -3597,10 +3608,10 @@
         <v>79</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="D29" s="16">
         <v>0.84</v>
@@ -3652,7 +3663,7 @@
         <v>79</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="16">
@@ -3705,7 +3716,7 @@
         <v>79</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="16">
@@ -3758,7 +3769,7 @@
         <v>79</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="16">
@@ -3811,7 +3822,7 @@
         <v>79</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="16">
@@ -3864,7 +3875,7 @@
         <v>79</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="16">
@@ -3917,7 +3928,7 @@
         <v>79</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="16">
@@ -3970,7 +3981,7 @@
         <v>79</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="16">
@@ -4023,7 +4034,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="16">
@@ -4076,7 +4087,7 @@
         <v>79</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="16">
@@ -4129,7 +4140,7 @@
         <v>79</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="16">
@@ -4182,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="16">
@@ -4235,7 +4246,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="16">
@@ -4343,10 +4354,10 @@
         <v>28</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D43" s="16">
         <v>13.206713881019828</v>
@@ -4398,10 +4409,10 @@
         <v>28</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="D44" s="16">
         <v>6.28</v>
@@ -4453,7 +4464,7 @@
         <v>28</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="16">
@@ -4506,7 +4517,7 @@
         <v>28</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="16">
@@ -4559,7 +4570,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="16">
@@ -4612,7 +4623,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="16">
@@ -4662,13 +4673,13 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="D49" s="16">
         <v>0.89</v>
@@ -4717,13 +4728,13 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="D50" s="16">
         <v>0.89</v>
@@ -4772,13 +4783,13 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="D51" s="16">
         <v>0.89</v>
@@ -4827,13 +4838,13 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="D52" s="16">
         <v>0.89</v>
@@ -4882,13 +4893,13 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="D53" s="16">
         <v>0.89</v>
@@ -4937,13 +4948,13 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="D54" s="16">
         <v>0.89</v>
@@ -4992,10 +5003,10 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="16">
@@ -5045,10 +5056,10 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="16">
@@ -5098,10 +5109,10 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="16">
@@ -5151,10 +5162,10 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="16">
@@ -5204,10 +5215,10 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="16">
@@ -5257,10 +5268,10 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="16">
@@ -5310,10 +5321,10 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="16">
@@ -5363,10 +5374,10 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="16">
@@ -5416,10 +5427,10 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="16">
@@ -5469,10 +5480,10 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="16">
@@ -5522,13 +5533,13 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="C65" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="D65" s="16">
         <v>10.157938144329897</v>
@@ -5577,13 +5588,13 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D66" s="16">
         <v>10.157938144329897</v>
@@ -5632,13 +5643,13 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B67" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="D67" s="16">
         <v>10.157938144329897</v>
@@ -5687,13 +5698,13 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="D68" s="16">
         <v>1.1599999999999999</v>
@@ -5742,10 +5753,10 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="16">
@@ -5795,10 +5806,10 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="16">
@@ -5848,10 +5859,10 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="16">
@@ -5901,13 +5912,13 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="D72" s="16">
         <v>3.24</v>
@@ -5956,13 +5967,13 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D73" s="16">
         <v>3.24</v>
@@ -6011,13 +6022,13 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="D74" s="16">
         <v>3.24</v>
@@ -6066,10 +6077,10 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="16">
@@ -6119,10 +6130,10 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="16">
@@ -6172,10 +6183,10 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="16">
@@ -6225,10 +6236,10 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="16">
@@ -6278,10 +6289,10 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="16">
@@ -6331,10 +6342,10 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="16">
@@ -6384,10 +6395,10 @@
     </row>
     <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="16">
@@ -6437,13 +6448,13 @@
     </row>
     <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="C82" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="D82" s="16">
         <v>9</v>
@@ -6492,13 +6503,13 @@
     </row>
     <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="D83" s="16">
         <v>9</v>
@@ -6547,13 +6558,13 @@
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B84" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="D84" s="16">
         <v>9</v>
@@ -6602,10 +6613,10 @@
     </row>
     <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="16">
@@ -6655,13 +6666,13 @@
     </row>
     <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="D86" s="16">
         <v>2.2200000000000002</v>
@@ -6710,13 +6721,13 @@
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B87" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="D87" s="16">
         <v>2.2200000000000002</v>
@@ -6765,13 +6776,13 @@
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D88" s="16">
         <v>2.2200000000000002</v>
@@ -6820,13 +6831,13 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B89" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>214</v>
       </c>
       <c r="D89" s="16">
         <v>0.19</v>
@@ -6875,13 +6886,13 @@
     </row>
     <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B90" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D90" s="16">
         <v>0.91</v>
@@ -6930,13 +6941,13 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>260</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="D91" s="16">
         <v>0.91</v>
@@ -6985,13 +6996,13 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="16">
         <v>0.91</v>
@@ -7040,13 +7051,13 @@
     </row>
     <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="16">
         <v>0.91</v>
@@ -7095,10 +7106,10 @@
     </row>
     <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="16">
@@ -7148,10 +7159,10 @@
     </row>
     <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="16">
@@ -7201,10 +7212,10 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="16">
@@ -7254,10 +7265,10 @@
     </row>
     <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="16">
@@ -7307,10 +7318,10 @@
     </row>
     <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="16">
@@ -7360,10 +7371,10 @@
     </row>
     <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="16">
@@ -7413,10 +7424,10 @@
     </row>
     <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="16">
@@ -7466,10 +7477,10 @@
     </row>
     <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="16">
@@ -7519,10 +7530,10 @@
     </row>
     <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="16">
@@ -7572,10 +7583,10 @@
     </row>
     <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="16">
@@ -7625,41 +7636,41 @@
     </row>
     <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M104" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
@@ -7678,41 +7689,41 @@
     </row>
     <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
@@ -7731,13 +7742,13 @@
     </row>
     <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="C106" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="D106" s="16">
         <v>4.25</v>
@@ -7786,10 +7797,10 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="16">
@@ -7839,10 +7850,10 @@
     </row>
     <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="16">
@@ -7892,10 +7903,10 @@
     </row>
     <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="16">
@@ -7945,10 +7956,10 @@
     </row>
     <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="16">
@@ -7998,13 +8009,13 @@
     </row>
     <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B111" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="C111" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>220</v>
       </c>
       <c r="D111" s="16">
         <v>1.33</v>
@@ -8053,13 +8064,13 @@
     </row>
     <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>222</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>223</v>
       </c>
       <c r="D112" s="16">
         <v>1</v>
@@ -8108,13 +8119,13 @@
     </row>
     <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="D113" s="16">
         <v>5.12</v>
@@ -8163,13 +8174,13 @@
     </row>
     <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B114" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="D114" s="16">
         <v>0.26</v>
@@ -8218,10 +8229,10 @@
     </row>
     <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="16">
@@ -8271,10 +8282,10 @@
     </row>
     <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="16">
@@ -8324,10 +8335,10 @@
     </row>
     <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="16">
@@ -8435,10 +8446,10 @@
         <v>24</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D119" s="16">
         <v>4.58</v>
@@ -8490,10 +8501,10 @@
         <v>24</v>
       </c>
       <c r="B120" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D120" s="16">
         <v>1.34</v>
@@ -8545,7 +8556,7 @@
         <v>24</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="16">
@@ -8598,7 +8609,7 @@
         <v>24</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="16">
@@ -8651,7 +8662,7 @@
         <v>24</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="16">
@@ -8704,7 +8715,7 @@
         <v>24</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="16">
@@ -8757,7 +8768,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="16">
@@ -8810,7 +8821,7 @@
         <v>24</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="16">
@@ -8863,7 +8874,7 @@
         <v>24</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="16">
@@ -8916,7 +8927,7 @@
         <v>24</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="16">
@@ -8969,7 +8980,7 @@
         <v>24</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="16">
@@ -9022,7 +9033,7 @@
         <v>24</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="16">
@@ -9075,7 +9086,7 @@
         <v>24</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="16">
@@ -9128,7 +9139,7 @@
         <v>24</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="16">
@@ -9181,7 +9192,7 @@
         <v>24</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="16">
@@ -9234,7 +9245,7 @@
         <v>24</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="16">
@@ -9287,7 +9298,7 @@
         <v>24</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="16">
@@ -9340,7 +9351,7 @@
         <v>24</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="16">
@@ -9616,7 +9627,7 @@
         <v>54</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D141" s="16">
         <v>0.52</v>
@@ -9943,7 +9954,7 @@
         <v>41</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="16">
@@ -9996,7 +10007,7 @@
         <v>41</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C148" s="20"/>
       <c r="D148" s="16">
@@ -10049,7 +10060,7 @@
         <v>41</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="16">
@@ -10102,7 +10113,7 @@
         <v>41</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="16">
@@ -10155,7 +10166,7 @@
         <v>41</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="16">
@@ -10263,10 +10274,10 @@
         <v>31</v>
       </c>
       <c r="B153" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="D153" s="16">
         <v>1.01</v>
@@ -10318,10 +10329,10 @@
         <v>31</v>
       </c>
       <c r="B154" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C154" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="D154" s="16">
         <v>2.93</v>
@@ -10373,10 +10384,10 @@
         <v>31</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="D155" s="16">
         <v>2.93</v>
@@ -10428,10 +10439,10 @@
         <v>31</v>
       </c>
       <c r="B156" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="D156" s="16">
         <v>1.8518702290076337</v>
@@ -10483,10 +10494,10 @@
         <v>31</v>
       </c>
       <c r="B157" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="D157" s="16">
         <v>1.01</v>
@@ -10538,7 +10549,7 @@
         <v>31</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="16">
@@ -10591,7 +10602,7 @@
         <v>31</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="16">
@@ -10644,7 +10655,7 @@
         <v>31</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="16">
@@ -10697,7 +10708,7 @@
         <v>31</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="16">
@@ -10750,7 +10761,7 @@
         <v>31</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="16">
@@ -10803,7 +10814,7 @@
         <v>31</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="16">
@@ -10856,7 +10867,7 @@
         <v>31</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="16">
@@ -10909,7 +10920,7 @@
         <v>31</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="16">
@@ -10962,7 +10973,7 @@
         <v>31</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="16">
@@ -11015,7 +11026,7 @@
         <v>31</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="16">
@@ -11068,7 +11079,7 @@
         <v>31</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="16">
@@ -11118,13 +11129,13 @@
     </row>
     <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="C169" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="D169" s="16">
         <v>15.77</v>
@@ -11173,7 +11184,7 @@
     </row>
     <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B170" s="15" t="s">
         <v>40</v>
@@ -11226,7 +11237,7 @@
     </row>
     <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B171" s="15" t="s">
         <v>34</v>
@@ -11279,7 +11290,7 @@
     </row>
     <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B172" s="15" t="s">
         <v>38</v>
@@ -11332,10 +11343,10 @@
     </row>
     <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="16">
@@ -11385,10 +11396,10 @@
     </row>
     <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="16">
@@ -11438,10 +11449,10 @@
     </row>
     <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="16">
@@ -11491,10 +11502,10 @@
     </row>
     <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="16">
@@ -11544,13 +11555,13 @@
     </row>
     <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="C177" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="D177" s="16">
         <v>0.8</v>
@@ -11599,13 +11610,13 @@
     </row>
     <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B178" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" s="18" t="s">
         <v>198</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>199</v>
       </c>
       <c r="D178" s="16">
         <v>0.8</v>
@@ -11654,13 +11665,13 @@
     </row>
     <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B179" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C179" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>212</v>
       </c>
       <c r="D179" s="16">
         <v>0.8</v>
@@ -11709,13 +11720,13 @@
     </row>
     <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B180" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C180" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="D180" s="16">
         <v>0.19</v>
@@ -11764,10 +11775,10 @@
     </row>
     <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="16">
@@ -11817,10 +11828,10 @@
     </row>
     <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="16">
@@ -11870,10 +11881,10 @@
     </row>
     <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="16">
@@ -11923,10 +11934,10 @@
     </row>
     <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="16">
@@ -11976,10 +11987,10 @@
     </row>
     <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="16">
@@ -12029,10 +12040,10 @@
     </row>
     <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="16">
@@ -12082,10 +12093,10 @@
     </row>
     <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="16">
@@ -12135,10 +12146,10 @@
     </row>
     <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="16">
@@ -12188,10 +12199,10 @@
     </row>
     <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="16">
@@ -12241,10 +12252,10 @@
     </row>
     <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="16">
@@ -12294,10 +12305,10 @@
     </row>
     <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="16">
@@ -12347,13 +12358,13 @@
     </row>
     <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B192" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B192" s="15" t="s">
+      <c r="C192" s="18" t="s">
         <v>333</v>
-      </c>
-      <c r="C192" s="18" t="s">
-        <v>334</v>
       </c>
       <c r="D192" s="16">
         <v>0.33</v>
@@ -12402,13 +12413,13 @@
     </row>
     <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B193" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C193" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="C193" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="D193" s="16">
         <v>0.19</v>
@@ -12457,13 +12468,13 @@
     </row>
     <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B194" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C194" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>340</v>
       </c>
       <c r="D194" s="16">
         <v>0.19</v>
@@ -12512,13 +12523,13 @@
     </row>
     <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C195" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="C195" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="D195" s="16">
         <v>0.19</v>
@@ -12567,13 +12578,13 @@
     </row>
     <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B196" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C196" s="18" t="s">
         <v>345</v>
-      </c>
-      <c r="C196" s="18" t="s">
-        <v>346</v>
       </c>
       <c r="D196" s="16">
         <v>0.71</v>
@@ -12622,13 +12633,13 @@
     </row>
     <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C197" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="C197" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="D197" s="16">
         <v>0.19</v>
@@ -12677,13 +12688,13 @@
     </row>
     <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B198" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C198" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="C198" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="D198" s="16">
         <v>0.19</v>
@@ -12732,13 +12743,13 @@
     </row>
     <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C199" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="C199" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="D199" s="16">
         <v>0.18</v>
@@ -12787,13 +12798,13 @@
     </row>
     <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B200" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C200" s="18" t="s">
         <v>356</v>
-      </c>
-      <c r="C200" s="18" t="s">
-        <v>357</v>
       </c>
       <c r="D200" s="16">
         <v>0.41</v>
@@ -12842,43 +12853,43 @@
     </row>
     <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C201" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C201" s="18" t="s">
-        <v>360</v>
-      </c>
       <c r="D201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M201" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N201" s="6"/>
       <c r="O201" s="6"/>
@@ -12897,10 +12908,10 @@
     </row>
     <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="16">
@@ -12950,10 +12961,10 @@
     </row>
     <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="16">
@@ -13003,10 +13014,10 @@
     </row>
     <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="16">
@@ -13056,10 +13067,10 @@
     </row>
     <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="16">
@@ -13109,41 +13120,41 @@
     </row>
     <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>406</v>
       </c>
       <c r="C206" s="16"/>
       <c r="D206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M206" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N206" s="6"/>
       <c r="O206" s="6"/>
@@ -13162,13 +13173,13 @@
     </row>
     <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B207" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="C207" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="D207" s="16">
         <v>1.2936000000000001</v>
@@ -13217,13 +13228,13 @@
     </row>
     <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B208" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C208" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="C208" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="D208" s="16">
         <v>2.66</v>
@@ -13272,13 +13283,13 @@
     </row>
     <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B209" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C209" s="18" t="s">
         <v>265</v>
-      </c>
-      <c r="C209" s="18" t="s">
-        <v>266</v>
       </c>
       <c r="D209" s="16">
         <v>2.66</v>
@@ -13327,13 +13338,13 @@
     </row>
     <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B210" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C210" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C210" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="D210" s="16">
         <v>2.66</v>
@@ -13382,13 +13393,13 @@
     </row>
     <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B211" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C211" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="C211" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="D211" s="16">
         <v>1.29</v>
@@ -13437,10 +13448,10 @@
     </row>
     <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="16">
@@ -13490,10 +13501,10 @@
     </row>
     <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="16">
@@ -13543,10 +13554,10 @@
     </row>
     <row r="214" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="16">
@@ -13599,7 +13610,7 @@
         <v>24</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="16">
@@ -13649,10 +13660,10 @@
     </row>
     <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B216" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="B216" s="15" t="s">
-        <v>412</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="16">
@@ -13702,10 +13713,10 @@
     </row>
     <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="16">
@@ -13755,10 +13766,10 @@
     </row>
     <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="16">
@@ -13808,10 +13819,10 @@
     </row>
     <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="16">
@@ -13861,10 +13872,10 @@
     </row>
     <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="16">
@@ -13914,10 +13925,10 @@
     </row>
     <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="16">
@@ -13967,10 +13978,10 @@
     </row>
     <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="16">
@@ -14020,10 +14031,10 @@
     </row>
     <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="16">
@@ -14073,10 +14084,10 @@
     </row>
     <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="16">
@@ -14126,10 +14137,10 @@
     </row>
     <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="16">
@@ -14179,10 +14190,10 @@
     </row>
     <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="16">
@@ -14232,10 +14243,10 @@
     </row>
     <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="16">
@@ -14453,7 +14464,7 @@
         <v>18</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="16">
@@ -14506,7 +14517,7 @@
         <v>18</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="16">
@@ -14559,7 +14570,7 @@
         <v>18</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="16">
@@ -14612,7 +14623,7 @@
         <v>18</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="16">
@@ -14665,7 +14676,7 @@
         <v>18</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="16">
@@ -14715,13 +14726,13 @@
     </row>
     <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="15" t="s">
+      <c r="C236" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="C236" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="D236" s="16">
         <v>9.07</v>
@@ -14770,13 +14781,13 @@
     </row>
     <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="C237" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="D237" s="16">
         <v>9.07</v>
@@ -14825,13 +14836,13 @@
     </row>
     <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B238" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="C238" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="D238" s="16">
         <v>9.07</v>
@@ -14880,7 +14891,7 @@
     </row>
     <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B239" s="15" t="s">
         <v>40</v>
@@ -14933,7 +14944,7 @@
     </row>
     <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B240" s="15" t="s">
         <v>34</v>
@@ -14986,7 +14997,7 @@
     </row>
     <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B241" s="15" t="s">
         <v>38</v>
@@ -15039,10 +15050,10 @@
     </row>
     <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="16">
@@ -15092,10 +15103,10 @@
     </row>
     <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="16">
@@ -15145,10 +15156,10 @@
     </row>
     <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="16">
@@ -15198,10 +15209,10 @@
     </row>
     <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="16">
@@ -15251,13 +15262,13 @@
     </row>
     <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B246" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B246" s="15" t="s">
+      <c r="C246" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C246" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D246" s="16">
         <v>0.23</v>
@@ -15306,13 +15317,13 @@
     </row>
     <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C247" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C247" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D247" s="16">
         <v>0.23</v>
@@ -15361,13 +15372,13 @@
     </row>
     <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B248" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C248" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="C248" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="D248" s="16">
         <v>0.23</v>
@@ -15416,13 +15427,13 @@
     </row>
     <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B249" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C249" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="C249" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="D249" s="16">
         <v>2.61</v>
@@ -15471,13 +15482,13 @@
     </row>
     <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B250" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C250" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="C250" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="D250" s="16">
         <v>2.61</v>
@@ -15526,13 +15537,13 @@
     </row>
     <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B251" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C251" s="18" t="s">
         <v>305</v>
-      </c>
-      <c r="C251" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="D251" s="16">
         <v>0.23</v>
@@ -15581,10 +15592,10 @@
     </row>
     <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="16">
@@ -15634,10 +15645,10 @@
     </row>
     <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="16">
@@ -15687,10 +15698,10 @@
     </row>
     <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="16">
@@ -15740,10 +15751,10 @@
     </row>
     <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="16">
@@ -15906,10 +15917,10 @@
         <v>37</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C258" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D258" s="16">
         <v>2.82</v>
@@ -15961,10 +15972,10 @@
         <v>37</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D259" s="16">
         <v>2.82</v>
@@ -16122,7 +16133,7 @@
         <v>37</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="16">
@@ -16175,7 +16186,7 @@
         <v>37</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="16">
@@ -16228,7 +16239,7 @@
         <v>37</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="16">
@@ -16281,7 +16292,7 @@
         <v>37</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="16">
@@ -16334,7 +16345,7 @@
         <v>37</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="16">
@@ -16387,7 +16398,7 @@
         <v>37</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="16">
@@ -16440,7 +16451,7 @@
         <v>37</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="16">
@@ -16493,7 +16504,7 @@
         <v>37</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="16">
@@ -16546,7 +16557,7 @@
         <v>37</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="16">
@@ -16596,13 +16607,13 @@
     </row>
     <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B271" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B271" s="15" t="s">
+      <c r="C271" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="C271" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="D271" s="16">
         <v>1.8</v>
@@ -16651,10 +16662,10 @@
     </row>
     <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="16">
@@ -16704,10 +16715,10 @@
     </row>
     <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="16">
@@ -16757,10 +16768,10 @@
     </row>
     <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="16">
@@ -16810,10 +16821,10 @@
     </row>
     <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="16">
@@ -16863,10 +16874,10 @@
     </row>
     <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="16">
@@ -16916,10 +16927,10 @@
     </row>
     <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="16">
@@ -16969,10 +16980,10 @@
     </row>
     <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="16">
@@ -17022,13 +17033,13 @@
     </row>
     <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B279" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B279" s="15" t="s">
+      <c r="C279" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="C279" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="D279" s="16">
         <v>14.7</v>
@@ -17077,13 +17088,13 @@
     </row>
     <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B280" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C280" s="18" t="s">
         <v>245</v>
-      </c>
-      <c r="C280" s="18" t="s">
-        <v>246</v>
       </c>
       <c r="D280" s="16">
         <v>14.7</v>
@@ -17132,10 +17143,10 @@
     </row>
     <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="16">
@@ -17185,10 +17196,10 @@
     </row>
     <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="16">
@@ -17238,10 +17249,10 @@
     </row>
     <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="16">
@@ -17291,10 +17302,10 @@
     </row>
     <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="16">
@@ -17344,10 +17355,10 @@
     </row>
     <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="16">
@@ -17397,10 +17408,10 @@
     </row>
     <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="16">
@@ -17450,10 +17461,10 @@
     </row>
     <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="16">
@@ -17503,10 +17514,10 @@
     </row>
     <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="16">
@@ -17556,13 +17567,13 @@
     </row>
     <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B289" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B289" s="15" t="s">
+      <c r="C289" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="C289" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="D289" s="16">
         <v>2.48</v>
@@ -17611,13 +17622,13 @@
     </row>
     <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B290" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C290" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="C290" s="18" t="s">
-        <v>321</v>
       </c>
       <c r="D290" s="16">
         <v>1.19</v>
@@ -17666,13 +17677,13 @@
     </row>
     <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B291" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="18" t="s">
         <v>322</v>
-      </c>
-      <c r="C291" s="18" t="s">
-        <v>323</v>
       </c>
       <c r="D291" s="16">
         <v>1.19</v>
@@ -17721,13 +17732,13 @@
     </row>
     <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C292" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D292" s="16">
         <v>1.19</v>
@@ -17776,13 +17787,13 @@
     </row>
     <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B293" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C293" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="C293" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="D293" s="16">
         <v>1.19</v>
@@ -17831,10 +17842,10 @@
     </row>
     <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="16">
@@ -17884,10 +17895,10 @@
     </row>
     <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="16">
@@ -17937,10 +17948,10 @@
     </row>
     <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="16">
@@ -17990,10 +18001,10 @@
     </row>
     <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="16">
@@ -18043,10 +18054,10 @@
     </row>
     <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="16">
@@ -18096,10 +18107,10 @@
     </row>
     <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="16">
@@ -18149,10 +18160,10 @@
     </row>
     <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="16">
@@ -18202,10 +18213,10 @@
     </row>
     <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="16">
@@ -18255,10 +18266,10 @@
     </row>
     <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="16">
@@ -18308,10 +18319,10 @@
     </row>
     <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="16">
@@ -18361,13 +18372,13 @@
     </row>
     <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B304" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B304" s="15" t="s">
+      <c r="C304" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="C304" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="D304" s="16">
         <v>0.89</v>
@@ -18416,10 +18427,10 @@
     </row>
     <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="16">
@@ -18469,10 +18480,10 @@
     </row>
     <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="16">
@@ -18522,10 +18533,10 @@
     </row>
     <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="16">
@@ -18575,10 +18586,10 @@
     </row>
     <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="16">
@@ -18628,10 +18639,10 @@
     </row>
     <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="16">
@@ -18681,13 +18692,13 @@
     </row>
     <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B310" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B310" s="15" t="s">
+      <c r="C310" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C310" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D310" s="16">
         <v>2.61</v>
@@ -18736,13 +18747,13 @@
     </row>
     <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B311" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C311" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C311" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="D311" s="16">
         <v>2.61</v>
@@ -18791,10 +18802,10 @@
     </row>
     <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="16">
@@ -18844,10 +18855,10 @@
     </row>
     <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="16">
@@ -18897,10 +18908,10 @@
     </row>
     <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="16">
@@ -18950,13 +18961,13 @@
     </row>
     <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B315" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B315" s="15" t="s">
+      <c r="C315" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="C315" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="D315" s="16">
         <v>1.3458333333333337</v>
@@ -19005,10 +19016,10 @@
     </row>
     <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="16">
@@ -19058,10 +19069,10 @@
     </row>
     <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="16">
@@ -19111,10 +19122,10 @@
     </row>
     <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B318" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="16">
@@ -19164,10 +19175,10 @@
     </row>
     <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="16">
@@ -19217,10 +19228,10 @@
     </row>
     <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="16">
@@ -19270,13 +19281,13 @@
     </row>
     <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B321" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B321" s="15" t="s">
+      <c r="C321" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="C321" s="18" t="s">
-        <v>284</v>
       </c>
       <c r="D321" s="16">
         <v>2.71</v>
@@ -19325,13 +19336,13 @@
     </row>
     <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B322" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C322" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="C322" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="D322" s="16">
         <v>2.71</v>
@@ -19380,13 +19391,13 @@
     </row>
     <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C323" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D323" s="16">
         <v>2.71</v>
@@ -19435,13 +19446,13 @@
     </row>
     <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B324" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C324" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="C324" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="D324" s="16">
         <v>1.1499999999999999</v>
@@ -19490,13 +19501,13 @@
     </row>
     <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B325" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="C325" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="D325" s="16">
         <v>2.71</v>
@@ -19545,10 +19556,10 @@
     </row>
     <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="16">
@@ -19598,10 +19609,10 @@
     </row>
     <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="16">
@@ -19651,10 +19662,10 @@
     </row>
     <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="16">
@@ -19704,10 +19715,10 @@
     </row>
     <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="16">
@@ -19757,10 +19768,10 @@
     </row>
     <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="16">
@@ -19810,10 +19821,10 @@
     </row>
     <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="16">
@@ -19869,7 +19880,7 @@
         <v>76</v>
       </c>
       <c r="C332" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D332" s="16">
         <v>1.1499999999999999</v>
@@ -20034,7 +20045,7 @@
         <v>89</v>
       </c>
       <c r="C335" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D335" s="16">
         <v>0.39</v>
@@ -20086,10 +20097,10 @@
         <v>75</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C336" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D336" s="16">
         <v>0.34499999999999997</v>
@@ -20141,10 +20152,10 @@
         <v>75</v>
       </c>
       <c r="B337" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C337" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="C337" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="D337" s="16">
         <v>2.48</v>
@@ -20196,10 +20207,10 @@
         <v>75</v>
       </c>
       <c r="B338" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C338" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C338" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="D338" s="16">
         <v>1.1499999999999999</v>
@@ -20251,10 +20262,10 @@
         <v>75</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C339" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D339" s="16">
         <v>0.34499999999999997</v>
@@ -20306,10 +20317,10 @@
         <v>75</v>
       </c>
       <c r="B340" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C340" s="18" t="s">
         <v>251</v>
-      </c>
-      <c r="C340" s="18" t="s">
-        <v>252</v>
       </c>
       <c r="D340" s="16">
         <v>0.33</v>
@@ -20361,10 +20372,10 @@
         <v>75</v>
       </c>
       <c r="B341" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C341" s="18" t="s">
         <v>262</v>
-      </c>
-      <c r="C341" s="18" t="s">
-        <v>263</v>
       </c>
       <c r="D341" s="16">
         <v>0.33</v>
@@ -20416,7 +20427,7 @@
         <v>75</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="16">
@@ -20469,7 +20480,7 @@
         <v>75</v>
       </c>
       <c r="B343" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="16">
@@ -20522,7 +20533,7 @@
         <v>75</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="16">
@@ -20575,7 +20586,7 @@
         <v>75</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="16">
@@ -20628,7 +20639,7 @@
         <v>75</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="16">
@@ -20681,7 +20692,7 @@
         <v>75</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="16">
@@ -20734,7 +20745,7 @@
         <v>75</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="16">
@@ -20787,7 +20798,7 @@
         <v>75</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="16">
@@ -39725,15 +39736,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="topRight" activeCell="C95" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39777,20 +39788,20 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="33"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -41163,7 +41174,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="16">
         <v>0.39</v>
@@ -41214,10 +41225,10 @@
         <v>75</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="16">
         <v>0.34499999999999997</v>
@@ -41268,10 +41279,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="16">
         <v>2.48</v>
@@ -41319,13 +41330,13 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="16">
         <v>0.23</v>
@@ -41373,13 +41384,13 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="16">
         <v>0.23</v>
@@ -41430,10 +41441,10 @@
         <v>75</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="D33" s="16">
         <v>1.1499999999999999</v>
@@ -41484,10 +41495,10 @@
         <v>75</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="16">
         <v>0.34499999999999997</v>
@@ -41535,13 +41546,13 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>121</v>
       </c>
       <c r="D35" s="16">
         <v>0.23</v>
@@ -41695,15 +41706,15 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>90</v>
+      <c r="C38" s="32" t="s">
+        <v>499</v>
       </c>
       <c r="D38" s="16">
         <v>0.84</v>
@@ -41754,10 +41765,10 @@
         <v>79</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="D39" s="16">
         <v>0.84</v>
@@ -41805,13 +41816,13 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="D40" s="16">
         <v>2.61</v>
@@ -41859,13 +41870,13 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C41" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="D41" s="16">
         <v>3.24</v>
@@ -41967,13 +41978,13 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="D43" s="16">
         <v>0.89</v>
@@ -42021,13 +42032,13 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="D44" s="16">
         <v>0.89</v>
@@ -42075,13 +42086,13 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="D45" s="16">
         <v>0.89</v>
@@ -42129,13 +42140,13 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="D46" s="16">
         <v>0.89</v>
@@ -42186,10 +42197,10 @@
         <v>31</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="16">
         <v>1.01</v>
@@ -42240,10 +42251,10 @@
         <v>31</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="D48" s="16">
         <v>2.93</v>
@@ -42294,10 +42305,10 @@
         <v>31</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>154</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>155</v>
       </c>
       <c r="D49" s="16">
         <v>2.93</v>
@@ -42348,10 +42359,10 @@
         <v>31</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>157</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="D50" s="16">
         <v>1.8518702290076337</v>
@@ -42399,13 +42410,13 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="18" t="s">
         <v>161</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>162</v>
       </c>
       <c r="D51" s="16">
         <v>3.24</v>
@@ -42456,10 +42467,10 @@
         <v>79</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="D52" s="16">
         <v>0.84</v>
@@ -42507,13 +42518,13 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="C53" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>167</v>
       </c>
       <c r="D53" s="16">
         <v>1.8</v>
@@ -42618,10 +42629,10 @@
         <v>31</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="D55" s="16">
         <v>1.01</v>
@@ -42669,13 +42680,13 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>146</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>147</v>
       </c>
       <c r="D56" s="16">
         <v>0.89</v>
@@ -42723,13 +42734,13 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>178</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>179</v>
       </c>
       <c r="D57" s="16">
         <v>3.24</v>
@@ -42777,13 +42788,13 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>153</v>
       </c>
       <c r="D58" s="16">
         <v>0.89</v>
@@ -42831,13 +42842,13 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>185</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="D59" s="16">
         <v>2.61</v>
@@ -42885,13 +42896,13 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="D60" s="16">
         <v>9</v>
@@ -42939,13 +42950,13 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>192</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>193</v>
       </c>
       <c r="D61" s="16">
         <v>9</v>
@@ -42993,13 +43004,13 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="D62" s="16">
         <v>0.8</v>
@@ -43047,13 +43058,13 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>198</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>199</v>
       </c>
       <c r="D63" s="16">
         <v>0.8</v>
@@ -43101,13 +43112,13 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="18" t="s">
         <v>201</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>202</v>
       </c>
       <c r="D64" s="16">
         <v>2.2200000000000002</v>
@@ -43155,13 +43166,13 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>203</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="D65" s="16">
         <v>2.2200000000000002</v>
@@ -43209,13 +43220,13 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>206</v>
       </c>
       <c r="D66" s="16">
         <v>9</v>
@@ -43263,13 +43274,13 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B67" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>209</v>
       </c>
       <c r="D67" s="16">
         <v>2.2200000000000002</v>
@@ -43317,13 +43328,13 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>211</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>212</v>
       </c>
       <c r="D68" s="16">
         <v>0.8</v>
@@ -43371,13 +43382,13 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" s="18" t="s">
         <v>213</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>214</v>
       </c>
       <c r="D69" s="16">
         <v>0.19</v>
@@ -43425,13 +43436,13 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="D70" s="16">
         <v>0.19</v>
@@ -43479,14 +43490,12 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>220</v>
-      </c>
+      <c r="C71" s="18"/>
       <c r="D71" s="16">
         <v>1.33</v>
       </c>
@@ -43533,14 +43542,12 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>223</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C72" s="18"/>
       <c r="D72" s="16">
         <v>1</v>
       </c>
@@ -43587,13 +43594,13 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="18" t="s">
         <v>226</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>227</v>
       </c>
       <c r="D73" s="16">
         <v>4.25</v>
@@ -43698,10 +43705,10 @@
         <v>37</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D75" s="16">
         <v>2.82</v>
@@ -43749,13 +43756,13 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="D76" s="16">
         <v>15.77</v>
@@ -43803,13 +43810,13 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="D77" s="16">
         <v>9.07</v>
@@ -43857,13 +43864,13 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B78" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C78" s="18" t="s">
         <v>238</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>239</v>
       </c>
       <c r="D78" s="16">
         <v>9.07</v>
@@ -43911,13 +43918,13 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B79" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" s="18" t="s">
         <v>240</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>241</v>
       </c>
       <c r="D79" s="16">
         <v>9.07</v>
@@ -43965,13 +43972,13 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="C80" s="18" t="s">
         <v>243</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>244</v>
       </c>
       <c r="D80" s="16">
         <v>14.7</v>
@@ -44019,13 +44026,13 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>245</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>246</v>
       </c>
       <c r="D81" s="16">
         <v>14.7</v>
@@ -44076,10 +44083,10 @@
         <v>24</v>
       </c>
       <c r="B82" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D82" s="16">
         <v>4.58</v>
@@ -44130,10 +44137,10 @@
         <v>24</v>
       </c>
       <c r="B83" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>249</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>250</v>
       </c>
       <c r="D83" s="16">
         <v>1.34</v>
@@ -44184,10 +44191,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>498</v>
+        <v>250</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>497</v>
       </c>
       <c r="D84" s="16">
         <v>0.33</v>
@@ -44235,13 +44242,13 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="C85" s="18" t="s">
         <v>254</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>255</v>
       </c>
       <c r="D85" s="16">
         <v>1.2936000000000001</v>
@@ -44289,13 +44296,13 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B86" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>259</v>
       </c>
       <c r="D86" s="16">
         <v>2.66</v>
@@ -44346,10 +44353,10 @@
         <v>75</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>497</v>
+        <v>261</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>496</v>
       </c>
       <c r="D87" s="16">
         <v>0.33</v>
@@ -44397,13 +44404,13 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>496</v>
+        <v>264</v>
+      </c>
+      <c r="C88" s="31" t="s">
+        <v>495</v>
       </c>
       <c r="D88" s="16">
         <v>2.66</v>
@@ -44451,13 +44458,13 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="C89" s="18" t="s">
         <v>176</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="D89" s="16">
         <v>10.157938144329897</v>
@@ -44505,13 +44512,13 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D90" s="16">
         <v>10.157938144329897</v>
@@ -44559,13 +44566,13 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="D91" s="16">
         <v>10.157938144329897</v>
@@ -44613,13 +44620,13 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>184</v>
       </c>
       <c r="D92" s="16">
         <v>1.1599999999999999</v>
@@ -44667,13 +44674,13 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B93" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>273</v>
       </c>
       <c r="D93" s="16">
         <v>5.12</v>
@@ -44721,13 +44728,13 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="18" t="s">
         <v>275</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>276</v>
       </c>
       <c r="D94" s="16">
         <v>0.26</v>
@@ -44775,13 +44782,13 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>279</v>
       </c>
       <c r="D95" s="16">
         <v>2.66</v>
@@ -44829,13 +44836,13 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="C96" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>284</v>
       </c>
       <c r="D96" s="16">
         <v>2.71</v>
@@ -44883,13 +44890,13 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B97" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>287</v>
       </c>
       <c r="D97" s="16">
         <v>2.71</v>
@@ -44937,13 +44944,13 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D98" s="16">
         <v>2.71</v>
@@ -44991,13 +44998,13 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D99" s="16">
         <v>0.91</v>
@@ -45045,13 +45052,13 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B100" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C100" s="18" t="s">
         <v>260</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="D100" s="16">
         <v>0.91</v>
@@ -45099,13 +45106,13 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D101" s="16">
         <v>0.91</v>
@@ -45153,13 +45160,13 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D102" s="16">
         <v>0.91</v>
@@ -45207,13 +45214,13 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>297</v>
       </c>
       <c r="D103" s="16">
         <v>2.61</v>
@@ -45261,13 +45268,13 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="C104" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="D104" s="16">
         <v>0.89</v>
@@ -45315,13 +45322,13 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C105" s="18" t="s">
         <v>303</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>304</v>
       </c>
       <c r="D105" s="16">
         <v>2.61</v>
@@ -45369,13 +45376,13 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>305</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>306</v>
       </c>
       <c r="D106" s="16">
         <v>0.23</v>
@@ -45423,13 +45430,13 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B107" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>307</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>308</v>
       </c>
       <c r="D107" s="16">
         <v>1.1499999999999999</v>
@@ -45477,13 +45484,13 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B108" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="D108" s="16">
         <v>1.29</v>
@@ -45531,13 +45538,13 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="C109" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="D109" s="16">
         <v>1.3458333333333337</v>
@@ -45585,13 +45592,13 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="C110" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>318</v>
       </c>
       <c r="D110" s="16">
         <v>2.48</v>
@@ -45639,13 +45646,13 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B111" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>321</v>
       </c>
       <c r="D111" s="16">
         <v>1.19</v>
@@ -45693,13 +45700,13 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B112" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="18" t="s">
         <v>322</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>323</v>
       </c>
       <c r="D112" s="16">
         <v>1.19</v>
@@ -45747,13 +45754,13 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B113" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>325</v>
       </c>
       <c r="D113" s="16">
         <v>2.71</v>
@@ -45801,13 +45808,13 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D114" s="16">
         <v>1.19</v>
@@ -45855,13 +45862,13 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B115" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>330</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>331</v>
       </c>
       <c r="D115" s="16">
         <v>1.19</v>
@@ -45909,13 +45916,13 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B116" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="C116" s="18" t="s">
         <v>333</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>334</v>
       </c>
       <c r="D116" s="16">
         <v>0.33</v>
@@ -45963,13 +45970,13 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B117" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C117" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="D117" s="16">
         <v>0.19</v>
@@ -46017,13 +46024,13 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B118" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>339</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>340</v>
       </c>
       <c r="D118" s="16">
         <v>0.19</v>
@@ -46071,13 +46078,13 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B119" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C119" s="18" t="s">
         <v>342</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>343</v>
       </c>
       <c r="D119" s="16">
         <v>0.19</v>
@@ -46125,13 +46132,13 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B120" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" s="18" t="s">
         <v>345</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>346</v>
       </c>
       <c r="D120" s="16">
         <v>0.71</v>
@@ -46179,13 +46186,13 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B121" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C121" s="18" t="s">
         <v>347</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>348</v>
       </c>
       <c r="D121" s="16">
         <v>0.19</v>
@@ -46233,13 +46240,13 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B122" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="18" t="s">
         <v>350</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>351</v>
       </c>
       <c r="D122" s="16">
         <v>0.19</v>
@@ -46287,13 +46294,13 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B123" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" s="18" t="s">
         <v>353</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>354</v>
       </c>
       <c r="D123" s="16">
         <v>0.18</v>
@@ -46341,13 +46348,13 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B124" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C124" s="18" t="s">
         <v>356</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>357</v>
       </c>
       <c r="D124" s="16">
         <v>0.41</v>
@@ -46395,43 +46402,43 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B125" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C125" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C125" s="18" t="s">
-        <v>360</v>
-      </c>
       <c r="D125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M125" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
@@ -46452,10 +46459,10 @@
         <v>28</v>
       </c>
       <c r="B126" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="D126" s="16">
         <v>13.206713881019828</v>
@@ -46506,10 +46513,10 @@
         <v>28</v>
       </c>
       <c r="B127" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="D127" s="16">
         <v>6.28</v>
@@ -46560,10 +46567,10 @@
         <v>37</v>
       </c>
       <c r="B128" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D128" s="16">
         <v>2.82</v>
